--- a/SIG_Conference/Experiment_Data/experiment/result.xlsx
+++ b/SIG_Conference/Experiment_Data/experiment/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>编号</t>
   </si>
@@ -150,6 +150,9 @@
       </rPr>
       <t>ModSecurity Core Rule Set 2.2.5</t>
     </r>
+  </si>
+  <si>
+    <t>phpBugTracker 1.6.0</t>
   </si>
 </sst>
 </file>
@@ -655,16 +658,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="12.625"/>
+    <col min="14" max="14" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -702,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -740,8 +744,15 @@
         <f>SUM(B2:K2)/10</f>
         <v>47.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>22.5</v>
+      </c>
+      <c r="N2">
+        <f>(L2-M2)/L2</f>
+        <v>0.52928870292887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -779,8 +790,15 @@
         <f t="shared" ref="L3:L10" si="0">SUM(B3:K3)/10</f>
         <v>56.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>61.7</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="1">(L3-M3)/L3</f>
+        <v>-0.0959147424511546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -818,8 +836,15 @@
         <f>SUM(B4:K4)/10</f>
         <v>235.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>195</v>
+      </c>
+      <c r="N4">
+        <f>(L4-M4)/L4</f>
+        <v>0.173027989821883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -857,8 +882,15 @@
         <f>SUM(B5:K5)/10</f>
         <v>223.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>191.9</v>
+      </c>
+      <c r="N5">
+        <f>(L5-M5)/L5</f>
+        <v>0.140618002686968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -896,8 +928,15 @@
         <f>SUM(B6:K6)/10</f>
         <v>213.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>119.1</v>
+      </c>
+      <c r="N6">
+        <f>(L6-M6)/L6</f>
+        <v>0.442415730337079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -935,8 +974,15 @@
         <f>SUM(B7:K7)/10</f>
         <v>313</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>159.1</v>
+      </c>
+      <c r="N7">
+        <f>(L7-M7)/L7</f>
+        <v>0.491693290734824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -974,8 +1020,15 @@
         <f>SUM(B8:K8)/10</f>
         <v>845.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>661.7</v>
+      </c>
+      <c r="N8">
+        <f>(L8-M8)/L8</f>
+        <v>0.21710837671557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1013,8 +1066,15 @@
         <f>SUM(B9:K9)/10</f>
         <v>888.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>710.3</v>
+      </c>
+      <c r="N9">
+        <f>(L9-M9)/L9</f>
+        <v>0.200832583258326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1052,6 +1112,13 @@
         <f>SUM(B10:K10)/10</f>
         <v>204.2</v>
       </c>
+      <c r="M10">
+        <v>149.3</v>
+      </c>
+      <c r="N10">
+        <f>(L10-M10)/L10</f>
+        <v>0.268854064642507</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1162,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" ref="L15:L17" si="1">AVERAGE(B16:K16)</f>
+        <f t="shared" ref="L15:L17" si="2">AVERAGE(B16:K16)</f>
         <v>61.7</v>
       </c>
     </row>
@@ -1240,7 +1307,7 @@
         <v>114</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18:L23" si="2">AVERAGE(B18:K18)</f>
+        <f t="shared" ref="L18:L23" si="3">AVERAGE(B18:K18)</f>
         <v>191.9</v>
       </c>
     </row>
@@ -1538,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,11 +1640,18 @@
         <v>964</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" ref="L30:L36" si="3">AVERAGE(B30:K30)</f>
+        <f t="shared" ref="L30:L36" si="4">AVERAGE(B30:K30)</f>
         <v>1030.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>859.5</v>
+      </c>
+      <c r="N30">
+        <f>(L30-M30)/L30</f>
+        <v>0.166100708256525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,8 +1689,15 @@
         <f>AVERAGE(B31:K31)</f>
         <v>1067</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>827.2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N38" si="5">(L31-M31)/L31</f>
+        <v>0.224742268041237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1654,8 +1735,15 @@
         <f>AVERAGE(B32:K32)</f>
         <v>1064.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>868.8</v>
+      </c>
+      <c r="N32">
+        <f>(L32-M32)/L32</f>
+        <v>0.183842179426961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1693,8 +1781,15 @@
         <f>AVERAGE(B33:K33)</f>
         <v>1171.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>797.6</v>
+      </c>
+      <c r="N33">
+        <f>(L33-M33)/L33</f>
+        <v>0.319395852888472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1732,8 +1827,15 @@
         <f>AVERAGE(B34:K34)</f>
         <v>1127</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>835.9</v>
+      </c>
+      <c r="N34">
+        <f>(L34-M34)/L34</f>
+        <v>0.25829636202307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1771,8 +1873,15 @@
         <f>AVERAGE(B35:K35)</f>
         <v>1133.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>794.4</v>
+      </c>
+      <c r="N35">
+        <f>(L35-M35)/L35</f>
+        <v>0.299161887957653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1810,8 +1919,15 @@
         <f>AVERAGE(B36:K36)</f>
         <v>934.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>890.4</v>
+      </c>
+      <c r="N36">
+        <f>(L36-M36)/L36</f>
+        <v>0.0467829996788353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1846,11 +1962,18 @@
         <v>685</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ref="L37:L42" si="4">AVERAGE(B37:K37)</f>
+        <f t="shared" ref="L37:L42" si="6">AVERAGE(B37:K37)</f>
         <v>1101.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>801.9</v>
+      </c>
+      <c r="N37">
+        <f>(L37-M37)/L37</f>
+        <v>0.272058823529412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1888,6 +2011,13 @@
         <f>AVERAGE(B38:K38)</f>
         <v>1075.1</v>
       </c>
+      <c r="M38">
+        <v>786</v>
+      </c>
+      <c r="N38">
+        <f>(L38-M38)/L38</f>
+        <v>0.268905218119245</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -1959,7 +2089,7 @@
         <v>991</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" ref="L42:L50" si="5">AVERAGE(B42:K42)</f>
+        <f t="shared" ref="L42:L50" si="7">AVERAGE(B42:K42)</f>
         <v>859.5</v>
       </c>
     </row>
@@ -2353,7 +2483,7 @@
         <v>1706</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" ref="L55:L63" si="6">AVERAGE(B55:K55)</f>
+        <f t="shared" ref="L55:L63" si="8">AVERAGE(B55:K55)</f>
         <v>1514.1</v>
       </c>
     </row>
@@ -2741,7 +2871,7 @@
         <v>957</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" ref="L67:L75" si="7">AVERAGE(B67:K67)</f>
+        <f t="shared" ref="L67:L75" si="9">AVERAGE(B67:K67)</f>
         <v>1130.7</v>
       </c>
     </row>
@@ -3055,6 +3185,11 @@
       <c r="L75" s="11">
         <f>AVERAGE(B75:K75)</f>
         <v>1192.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
